--- a/漢字（かんじ）/ji.xlsx
+++ b/漢字（かんじ）/ji.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C475ADF-5605-4920-A140-1675F3BA38C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06920C58-BD56-4911-9019-76D57791A7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="11652" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="じ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>自</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
   </si>
   <si>
     <t>重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要｜じゅうよう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -597,6 +593,11 @@
 正常｜せいじょう
 異常｜いじょう
 日常｜にちじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要｜じゅうよう
+重大｜じゅうだい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -957,22 +958,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -983,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -992,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1003,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1012,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1043,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1052,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1069,10 +1070,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1083,16 +1084,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1103,16 +1104,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -1120,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -1140,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -1152,7 +1153,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1169,10 +1170,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1183,7 +1184,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
@@ -1192,7 +1193,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1203,16 +1204,16 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1220,10 +1221,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
@@ -1232,7 +1233,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1243,7 +1244,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -1252,7 +1253,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1260,19 +1261,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1283,16 +1284,16 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1306,13 +1307,13 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1320,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
@@ -1331,10 +1332,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1345,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1356,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1364,10 +1365,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1378,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1386,10 +1387,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1397,10 +1398,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1408,10 +1409,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1419,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1430,10 +1431,10 @@
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1444,7 +1445,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1452,21 +1453,21 @@
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>42</v>
+      <c r="C32" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1474,10 +1475,10 @@
         <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -1485,10 +1486,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1496,10 +1497,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1507,10 +1508,21 @@
         <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>98</v>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/ji.xlsx
+++ b/漢字（かんじ）/ji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06920C58-BD56-4911-9019-76D57791A7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F7E6BA-8742-4CA0-8649-878B5E32DD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会場｜かいじょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,12 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人力｜じんり
-達人｜たつじん
-鉄人｜てつじん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上手｜じょうず
 上旬｜じょうじゅん
 頂上｜ちょうじょう
@@ -598,6 +588,18 @@
   <si>
     <t>重要｜じゅうよう
 重大｜じゅうだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力｜じんり
+達人｜たつじん
+鉄人｜てつじん
+成人｜せいじん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会場｜かいじょう
+競技場｜きょうぎじょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -958,25 +960,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -984,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -993,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1004,16 +1006,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1044,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1053,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1070,10 +1072,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1084,16 +1086,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1104,16 +1106,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -1121,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -1133,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1141,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -1153,47 +1155,47 @@
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1201,19 +1203,19 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1221,19 +1223,19 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1241,19 +1243,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1261,19 +1263,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1284,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1301,30 +1303,30 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1332,10 +1334,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1346,7 +1348,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1357,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1365,10 +1367,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1379,7 +1381,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1387,10 +1389,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1398,10 +1400,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1409,10 +1411,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1420,109 +1422,109 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/ji.xlsx
+++ b/漢字（かんじ）/ji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F7E6BA-8742-4CA0-8649-878B5E32DD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853DC213-FDF3-48AE-96E2-D4DE11323356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
   <si>
     <t>自</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,11 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>受刑｜じゅけい
-受刑者｜じゅけいしゃ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,14 +393,6 @@
   </si>
   <si>
     <t>矛盾｜むじゅん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受験者｜じゅけんしゃ
-受注｜じゅちゅう
-受注番号｜じゅちゅうばんごう
-接受｜せつじゅ
-収受｜しゅうじゅ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -600,6 +587,33 @@
   <si>
     <t>会場｜かいじょう
 競技場｜きょうぎじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞表｜じじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受験者｜じゅけんしゃ
+受信｜じゅしん
+受注｜じゅちゅう
+受刑｜じゅけい
+受刑者｜じゅけいしゃ
+受注番号｜じゅちゅうばんごう
+接受｜せつじゅ
+収受｜しゅうじゅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸気｜じょうき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -986,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -995,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1006,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1015,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1055,7 +1069,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1063,19 +1077,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1083,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1103,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -1123,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -1143,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -1158,15 +1172,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -1178,15 +1192,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
@@ -1198,15 +1212,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
@@ -1215,7 +1229,7 @@
         <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1223,10 +1237,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
@@ -1235,18 +1249,18 @@
         <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
@@ -1263,10 +1277,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>68</v>
@@ -1280,22 +1294,22 @@
     </row>
     <row r="17" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1303,30 +1317,30 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1334,10 +1348,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1348,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1359,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1381,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1392,7 +1406,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1439,70 +1453,70 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1510,20 +1524,31 @@
         <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>62</v>
       </c>
     </row>

--- a/漢字（かんじ）/ji.xlsx
+++ b/漢字（かんじ）/ji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853DC213-FDF3-48AE-96E2-D4DE11323356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F727CE3-F557-4674-846D-44BC50FABCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,11 +303,6 @@
   </si>
   <si>
     <t>助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>補助｜ほじょ
-補助金｜ほじょきん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -547,22 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>果実｜かじつ
-口実｜こうじつ
-充実｜じゅうじつ
-誠実｜せいじつ
-実践｜じっせん
-実現｜じつげん
-実験｜じっけん
-実力｜じつり
-実需｜じつじゅ
-実例｜じつれい
-充実感｜じゅうじつかん
-実立派｜じつりっぱ
-実需品｜じつじゅひん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>常用｜じょうよう
 通常｜つうじょう
 非常｜ひじょう
@@ -614,6 +593,29 @@
   </si>
   <si>
     <t>蒸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補助｜ほじょ
+補助金｜ほじょきん
+援助｜えんじょ
+助手｜じょしゅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果実｜かじつ
+口実｜こうじつ
+充実｜じゅうじつ
+誠実｜せいじつ
+実践｜じっせん
+実現｜じつげん
+実験｜じっけん
+実力｜じつりょく
+実需｜じつじゅ
+実例｜じつれい
+充実感｜じゅうじつかん
+実立派｜じつりっぱ
+実需品｜じつじゅひん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,9 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1029,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1069,7 +1069,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1077,19 +1077,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1106,10 +1106,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1120,16 +1120,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -1177,19 +1177,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1229,7 +1229,7 @@
         <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1240,7 +1240,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
@@ -1249,10 +1249,10 @@
         <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
@@ -1280,16 +1280,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1303,13 +1303,13 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1317,19 +1317,19 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1337,10 +1337,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1348,10 +1348,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1362,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1373,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1381,10 +1381,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1395,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1406,7 +1406,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1450,7 +1450,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1458,10 +1458,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1494,7 +1494,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1505,7 +1505,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -1524,10 +1524,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1535,10 +1535,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/ji.xlsx
+++ b/漢字（かんじ）/ji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F727CE3-F557-4674-846D-44BC50FABCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3FA627-3B91-4F80-8BF5-848A210AF040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,16 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常用｜じょうよう
-通常｜つうじょう
-非常｜ひじょう
-平常｜へいじょう
-正常｜せいじょう
-異常｜いじょう
-日常｜にちじょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重要｜じゅうよう
 重大｜じゅうだい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,6 +606,17 @@
 充実感｜じゅうじつかん
 実立派｜じつりっぱ
 実需品｜じつじゅひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用｜じょうよう
+常識｜じょうしき
+通常｜つうじょう
+非常｜ひじょう
+平常｜へいじょう
+正常｜せいじょう
+異常｜いじょう
+日常｜にちじょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1009,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1077,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -1249,7 +1252,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1260,7 +1263,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
@@ -1320,7 +1323,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
@@ -1348,10 +1351,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1398,7 +1401,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="126" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1483,7 +1486,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1494,7 +1497,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/ji.xlsx
+++ b/漢字（かんじ）/ji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3FA627-3B91-4F80-8BF5-848A210AF040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98EED3B-6B2F-4C03-ACFA-84F8FCB41E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
   <si>
     <t>自</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1544,17 +1544,6 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/漢字（かんじ）/ji.xlsx
+++ b/漢字（かんじ）/ji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98EED3B-6B2F-4C03-ACFA-84F8FCB41E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8947388B-D034-4E0D-BE60-A453D7652946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清浄｜せいじょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彼女｜かのじょ
 美女｜びじょ
 長女｜ちょうじょ
@@ -233,10 +229,6 @@
   <si>
     <t>類似｜るいじ
 相似｜ろうじ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（生）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -483,10 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条例｜じょうれい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自動｜じどう
 自習｜じしゅしつ
 自習室｜じしゅうしつ</t>
@@ -617,6 +605,21 @@
 正常｜せいじょう
 異常｜いじょう
 日常｜にちじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条例｜じょうれい
+条件｜じょうけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清浄｜せいじょう
+浄水｜じょうすい
+浄化｜じょうか</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -977,22 +980,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1003,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1012,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1023,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1032,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1063,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1072,7 +1075,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1080,19 +1083,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1109,10 +1112,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1123,16 +1126,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -1143,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -1160,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -1172,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1180,19 +1183,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1203,7 +1206,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
@@ -1212,7 +1215,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1229,10 +1232,10 @@
         <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1243,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
@@ -1252,7 +1255,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1260,10 +1263,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
@@ -1272,7 +1275,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1283,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1306,13 +1309,13 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1320,30 +1323,30 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1351,10 +1354,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1365,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1376,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1384,10 +1387,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1398,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -1409,18 +1412,18 @@
         <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
+      <c r="C26" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1428,10 +1431,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1439,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1450,10 +1453,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1461,10 +1464,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1486,7 +1489,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1497,7 +1500,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1505,10 +1508,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -1516,10 +1519,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1527,10 +1530,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1538,10 +1541,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/ji.xlsx
+++ b/漢字（かんじ）/ji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8947388B-D034-4E0D-BE60-A453D7652946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3456BBDC-88D4-4D6E-BB05-215D2942988A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>準</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>準備｜じゅんび</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -620,6 +616,12 @@
     <t>清浄｜せいじょう
 浄水｜じょうすい
 浄化｜じょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備｜じゅんび
+標準｜ひょうじゅん
+標準偏差｜ひょうじゅんへんさ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -980,22 +982,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1006,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1015,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1026,19 +1028,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1054,8 +1056,8 @@
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
+      <c r="G4" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1066,16 +1068,16 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1083,19 +1085,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1112,10 +1114,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1126,16 +1128,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -1146,16 +1148,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1163,19 +1165,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1183,119 +1185,119 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="164.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1303,19 +1305,19 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1323,19 +1325,19 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1343,10 +1345,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1354,10 +1356,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1368,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1379,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1387,10 +1389,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1401,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -1409,10 +1411,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1420,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1431,10 +1433,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1442,109 +1444,109 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
